--- a/biology/Botanique/Espadaea_amoena/Espadaea_amoena.xlsx
+++ b/biology/Botanique/Espadaea_amoena/Espadaea_amoena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Espadaea amoena est une espèce d'arbres de la famille des Goetzeaceae selon la classification de Cronquist, ou de la famille des Solanaceae selon la classification APG III. C'est l'unique représentant du genre Espadaea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 mars 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 mars 2012) :
 Espadaea amoena</t>
         </is>
       </c>
